--- a/biology/Botanique/Écozone_océanienne___plantes_à_graines_par_nom_scientifique/Écozone_océanienne___plantes_à_graines_par_nom_scientifique.xlsx
+++ b/biology/Botanique/Écozone_océanienne___plantes_à_graines_par_nom_scientifique/Écozone_océanienne___plantes_à_graines_par_nom_scientifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non exhaustive
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Abe
-Abelia - Caprifoliacées
-Abelia Xgrandiflora -- Glossy abelia
-Abr
-Abrus - Fabacées
-Abrus precatorius -- Black-eyed Susan, rosary pea
-Abu
-Abutilon - Malvacées
+          <t>Abe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Abelia - Caprifoliacées
+Abelia Xgrandiflora -- Glossy abelia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ab</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Abr</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Abrus - Fabacées
+Abrus precatorius -- Black-eyed Susan, rosary pea</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ab</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Abu</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Abutilon - Malvacées
 Abutilon grandifolium -- Hairy abutilon
 Abutilon incanum -- Hoary abutilon
 Abutilon megapotamicum -- Trailing abutilon
@@ -529,34 +614,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Ac</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Aca
-Acacia - Fabacées
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aca</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Acacia - Fabacées
 Acacia auriculiformis -- Earpod wattle
 Acacia confusa -- Formosa koa
 Acacia farnesiana -- Klu
@@ -575,111 +665,393 @@
 Acaena novae-zelandiae - Acaena de Nouvelle-Zélande
 Acalypha - Euphorbiacées
 Acalypha godseffiana -- Copper leaf
-Acalypha hispida -- Chenille plant
-Ach
-Achillea - Astéracées
+Acalypha hispida -- Chenille plant</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ac</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ach</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Achillea - Astéracées
 Achillea millefolium -- Yarrow
 Achyranthes - Amaranthacées
 Achyranthes splendens var. splendens --</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Ag</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Aga
-Agapanthus - Liliacées
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aga</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Agapanthus - Liliacées
 Agapanthus praecox -- Lily of the Nile
 Agathis - Araucariacées
 Agathis robusta -- Queensland kauri
 Agave - Agavacées
 Agave americanum -- Century plant
 Agave attenuata -- Swan's neck agave
-Agave sisalana -- Sisal
-Age
-Ageratina - Astéracées
+Agave sisalana -- Sisal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ag</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ageratina - Astéracées
 Ageratina adenophora -- Maui pamakani
 Ageratum - Astéracées
-Ageratum conyzoides -- Ageratum
-Agl
-Aglaia - Méliacées
-Aglaia odorata -- Chinese rice flower
-Agr
-Agrostis - Poacées
+Ageratum conyzoides -- Ageratum</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ag</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Agl</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Aglaia - Méliacées
+Aglaia odorata -- Chinese rice flower</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ag</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Agr</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Agrostis - Poacées
 Agrostis avenacea -- Heupueo
 Agrostis sandwicensis -- Bentgrass</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alb
-Albizia - Fabacées
-Albizia lebbeck -- Siris tree
-Ale
-Alectryon - Sapindacées
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Alb</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Albizia - Fabacées
+Albizia lebbeck -- Siris tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Alectryon - Sapindacées
 Alectryon macrococcus var. auwahiensis -- Mahoe
 Aleurites - Euphorbiacées
-Aleurites moluccana -- Kukui
-All
-Allamanda - Apocynacées
+Aleurites moluccana -- Kukui</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Allamanda - Apocynacées
 Allamanda blanchetii -- Purple allamanda
 Allium - Alliacées
-Allium fistulosum -- Green onion
-Alo
-Alocasia - Aracées (Voir aussi zone paléarctique)
+Allium fistulosum -- Green onion</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Alo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Alocasia - Aracées (Voir aussi zone paléarctique)
 Alocasia macrorrhiza
 Aloe - Agavacées
-Aloe vera -- Aloe
-Alp
-Alphitonia - fam. Rhamnacées
+Aloe vera -- Aloe</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Alp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Alphitonia - fam. Rhamnacées
 Alphitonia ponderosa -- Kauila
 Alpinia - fam. Zingibéracées - noms usuels : Gingembre d'ornement, Galanga, Alpinie
 Alpinia bractea
@@ -692,105 +1064,455 @@
 Alpinia officinarum - Petit galanga
 Alpinia purpurata - Gingembre d'ornement rouge
 Alpinia vittata syn. Alpinia sanderae
-Alpinia zerumbet syn. Costus zerumbet syn. Alpinia nutans syn. Alpinia speciosa - Longose, Fleur de mon âme, Larmes de la vierge, Gingembre coquille, Fleur du paradis
-Als
-Alstroemeria - Amaryllidacées
-Alstroemeria sp.  -- Peruvian lily
-Alt
-Alternanthera - Amaranthacées
+Alpinia zerumbet syn. Costus zerumbet syn. Alpinia nutans syn. Alpinia speciosa - Longose, Fleur de mon âme, Larmes de la vierge, Gingembre coquille, Fleur du paradis</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Als</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Alstroemeria - Amaryllidacées
+Alstroemeria sp.  -- Peruvian lily</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Alt</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Alternanthera - Amaranthacées
 Alternanthera caracasana -- Mat chaff flower
-Alternanthera pungens -- Khaki weed
-Aly
-Alyxia - Apocynacées
+Alternanthera pungens -- Khaki weed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Aly</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Alyxia - Apocynacées
 Alyxia oliviformis -- Maile</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Am</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ama
-Amaranthus - Amaranthacées
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ama</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Amaranthus - Amaranthacées
 Amaranthus hybridus -- Green amaranth
 Amaranthus spinosus -- Spiny amaranth
-Amaranthus viridis -- Slender amaranth
-Amb
-Ambrosia -Astéracées
+Amaranthus viridis -- Slender amaranth</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Amb</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ambrosia -Astéracées
 Ambrosia artemisiifolia -- Ambrosia</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>An</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Ana
-Anagallis - Primulacées
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Anagallis - Primulacées
 Anagallis arvensis -- Scarlet pimpernel
 Ananas - Broméliacées
-Ananas comosus -- Pineapple
-And
-Andropogon - Poacées
-Andropogon virginicus -- Broomsedge
-Ang
-Angophora - Myrtacées
-Angophora lanceolata -- Gum myrtle
-Ani
-Anigozanthos - Haémodoracées
-Anigozanthos flavidus -- Kangaroo paw
-Ann
-Annona - Annonacées
-Annona glabra -- Pond apple
-Anr
-Anredera - Basellacées
-Anredera cordifolia -- Madeira vine
-Ant
-Anthemis - Astéracées
+Ananas comosus -- Pineapple</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>And</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Andropogon - Poacées
+Andropogon virginicus -- Broomsedge</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ang</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Angophora - Myrtacées
+Angophora lanceolata -- Gum myrtle</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Ani</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Anigozanthos - Haémodoracées
+Anigozanthos flavidus -- Kangaroo paw</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ann</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Annona - Annonacées
+Annona glabra -- Pond apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Anr</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Anredera - Basellacées
+Anredera cordifolia -- Madeira vine</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Ant</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Anthemis - Astéracées
 Anthemis cotula -- Mayweed
 Anthoxanthum - Poacées
 Anthoxanthum odoratum -- Sweet vernalgrass
@@ -804,81 +1526,227 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Ap</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Apt
-Aptenia - Aizoacées
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Apt</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Aptenia - Aizoacées
 Aptenia cordifolia -- Rock rose</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Ar</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Ara
-Araucaria - Araucariacées
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ara</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Araucaria - Araucariacées
 Araucaria columnaris -- Cook pine
 Araucaria heterophylla -- Norfolk Island pine
-Araucaria sp.  -- Araucaria
-Arc
-Archontophoenix - Arécacées
-Archontophoenix alexandrae -- Alexander palm
-Ard
-Ardisia - Myrsinacées
+Araucaria sp.  -- Araucaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Arc</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Archontophoenix - Arécacées
+Archontophoenix alexandrae -- Alexander palm</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ard</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Ardisia - Myrsinacées
 Ardisia crenata -- Hilo holly
-Ardisia elliptica -- Shoebutton ardisia
-Are
-Arenaria - Caryophyllacées
-Arenaria serpyllifolia -- Thyme-leaved sandwort
-Arg
-Argemone - Papavéracées
+Ardisia elliptica -- Shoebutton ardisia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Are</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Arenaria - Caryophyllacées
+Arenaria serpyllifolia -- Thyme-leaved sandwort</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Arg</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Argemone - Papavéracées
 Argemone glauca var. glauca -- Pua kala
 Argemone mexicana -- Mexican poppy
 Argyroxiphium - Astéracées
@@ -886,225 +1754,484 @@
 Argyroxiphium kauense -- Ahinahina, Kau silversword
 Argyroxiphium sandwicense subsp. macrocephalum -- Ahinahina, Haleakala silversword
 Argyroxiphium sandwicense subsp. sandwicense -- Ahinahina, Mauna Kea silversword (Asteraceae)
-Argyroxiphium Xdubautia -- Silversword hybrid
-Ari
-Aristolochia - Aristolochiacées
-Aristolochia littoralis -- Calico flower
-Arr
-Arrhenatherum - Poacées
-Arrhenatherum elatius -- Arrhenatherum
-Art
-Artemisia - Astéracées
+Argyroxiphium Xdubautia -- Silversword hybrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ari</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Aristolochia - Aristolochiacées
+Aristolochia littoralis -- Calico flower</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Arr</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Arrhenatherum - Poacées
+Arrhenatherum elatius -- Arrhenatherum</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Artemisia - Astéracées
 Artemisia mauiensis -- Ahinahina
 Artemisia mauiensis var. diffusa -- Ahinahina
 Artocarpus - Moracées
 Artocarpus altilis - Arbre à pain
-Artocarpus odoratissimus -- Marang
-Aru
-Arundina - Orchidacées
+Artocarpus odoratissimus -- Marang</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Aru</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Arundina - Orchidacées
 Arundina graminifolia -- Bamboo orchid
 Arundo - Poacées
 Arundo donax -- Giant reed</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>As</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Asc
-Asclepias - Asclépiadacées
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Asc</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Asclepias - Asclépiadacées
 Asclepias curassavica -- Butterfly weed
-Asclepias physocarpa -- Arbre à ballons
-Asp
-Asparagus - Asparagacées
+Asclepias physocarpa -- Arbre à ballons</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Asparagus - Asparagacées
 Asparagus asparagoides -- Smilax
 Asparagus densiflorus -- Coarse asparagus fern
 Asparagus myriocladus -- Zigzag asparagus
-Asparagus plumosus -- Asparagus fern
-Ast
-Aster - Astéracées
-Aster subulatus -- Annual saltmarsh aster
-Asy
-'Asystasia - Acanthacées
+Asparagus plumosus -- Asparagus fern</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Ast</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Aster - Astéracées
+Aster subulatus -- Annual saltmarsh aster</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Asy</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>'Asystasia - Acanthacées
 Asystasia gangetica -- Chinese violet
 Asystasia sp. -- Asystasia</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>At</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Atr
-Atriplex - Chénopodiacées
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Atr</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Atriplex - Chénopodiacées
 Atriplex semibaccata -- Australian saltbush
 Atriplex suberecta -- Saltbush</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Av</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Ave
-Averrhoa - Oxalidacées
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ave</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Averrhoa - Oxalidacées
 Averrhoa carambola - Carambole</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t>Licuala - fam. Arecaceae
 Licuala grandis - Palmier cuillère</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t>Musa - Musacées</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Écozone_océanienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_oc%C3%A9anienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t xml:space="preserve">plantes de Hawaii
  Portail de la botanique                     </t>
